--- a/book.xlsx
+++ b/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\kamilerTest_Excel2Json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054D0AC7-75CC-4044-8E87-1E16FC133EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F953A6C-55A7-40F7-BD44-97D55F7DEEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="1695" windowWidth="25575" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LAYOUT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>LAYOUT</t>
   </si>
@@ -162,6 +162,38 @@
   </si>
   <si>
     <t>#rule[]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パターン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NONE</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -254,14 +286,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,323 +600,412 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:I5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="10" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="10"/>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="H5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="J8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="J9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="6">
+      <c r="N11" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1" t="s">
+    <row r="12" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="G4:I4"/>
+  <mergeCells count="12">
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
